--- a/employee.xlsx
+++ b/employee.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbing\Dropbox\511Stuff\BookNew\data\Employee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Documents/BookNew/data/Employee/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549C530-0861-9942-A110-A4A270570335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15525" tabRatio="300"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="19980" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="101716" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,9 +66,6 @@
     <t>Jones, Alissa</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Downs, Deborah</t>
   </si>
   <si>
@@ -192,12 +190,15 @@
   </si>
   <si>
     <t>Plan</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -679,7 +680,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -723,7 +724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -744,29 +745,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -781,19 +782,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -807,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6">
-        <v>43788.26</v>
+        <v>53788.26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -822,7 +823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -833,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <v>84494.58</v>
+        <v>94494.58</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -848,7 +849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -862,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6">
-        <v>101074.86</v>
+        <v>111074.86</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -877,7 +878,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -885,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6">
-        <v>43772.58</v>
+        <v>53772.58</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -900,24 +901,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>57139.9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>47139.9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -929,24 +930,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="6">
-        <v>59441.93</v>
+        <v>69441.929999999993</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -958,9 +959,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -969,10 +970,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6">
-        <v>89062.66</v>
+        <v>99062.66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -987,9 +988,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1001,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="6">
-        <v>62321.36</v>
+        <v>72321.36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1016,24 +1017,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6">
-        <v>51356.69</v>
+        <v>61356.69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1045,24 +1046,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6">
-        <v>46772.95</v>
+        <v>56772.95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1074,21 +1075,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6">
-        <v>45545.25</v>
+        <v>55545.25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1103,9 +1104,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -1117,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="6">
-        <v>71871.05</v>
+        <v>81871.05</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -1132,21 +1133,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6">
-        <v>61084.02</v>
+        <v>71084.01999999999</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -1161,21 +1162,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="6">
-        <v>56337.83</v>
+        <v>66337.83</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1190,9 +1191,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1201,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6">
-        <v>85027.55</v>
+        <v>95027.55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1219,21 +1220,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6">
-        <v>82681.19</v>
+        <v>92681.19</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -1248,21 +1249,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6">
-        <v>81352.33</v>
+        <v>91352.33</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -1277,9 +1278,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -1291,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="6">
-        <v>124419.23</v>
+        <v>134419.22999999998</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1306,21 +1307,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="6">
-        <v>112563.38</v>
+        <v>122563.38</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -1335,9 +1336,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1346,13 +1347,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="6">
-        <v>39704.79</v>
+        <v>49704.79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1364,9 +1365,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -1378,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="6">
-        <v>73014.429999999993</v>
+        <v>83014.429999999993</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -1393,21 +1394,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6">
-        <v>39868.68</v>
+        <v>49868.68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -1422,9 +1423,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -1436,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="6">
-        <v>59624.87</v>
+        <v>69624.87</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1451,9 +1452,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1462,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="6">
-        <v>56312.89</v>
+        <v>66312.89</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1480,9 +1481,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1494,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="5">
-        <v>67714.850000000006</v>
+        <v>77714.850000000006</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1509,9 +1510,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1523,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="5">
-        <v>39188.959999999999</v>
+        <v>49188.959999999999</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1538,24 +1539,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>36124.97</v>
+        <v>46124.97</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
@@ -1567,24 +1568,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5">
-        <v>51055.44</v>
+        <v>61055.44</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -1596,9 +1597,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -1607,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
-        <v>59547.6</v>
+        <v>69547.600000000006</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1625,9 +1626,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -1639,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="5">
-        <v>77785.509999999995</v>
+        <v>87785.51</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
@@ -1654,21 +1655,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
-        <v>62502.5</v>
+        <v>72502.5</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -1680,24 +1681,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5">
-        <v>51961.29</v>
+        <v>61961.29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -1709,21 +1710,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5">
-        <v>62675.26</v>
+        <v>72675.260000000009</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -1738,9 +1739,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -1752,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="5">
-        <v>98138.43</v>
+        <v>108138.43</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1767,24 +1768,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5">
-        <v>41036.85</v>
+        <v>51036.85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -1796,21 +1797,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="5">
-        <v>46508.32</v>
+        <v>56508.32</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
@@ -1825,9 +1826,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -1836,13 +1837,13 @@
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="5">
+        <v>57562.36</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E38" s="5">
-        <v>47562.36</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -1858,7 +1859,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>250000</formula2>
     </dataValidation>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgerbing/Documents/BookNew/data/Employee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549C530-0861-9942-A110-A4A270570335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA8CCAF-CB9E-1F41-A4B7-21F161523C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="19980" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
@@ -39,6 +37,18 @@
     <t>Salary</t>
   </si>
   <si>
+    <t>JobSat</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
     <t>Ritchie, Darnell</t>
   </si>
   <si>
@@ -60,21 +70,24 @@
     <t>low</t>
   </si>
   <si>
+    <t>Downs, Deborah</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>FINC</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Hoang, Binh</t>
   </si>
   <si>
     <t>Jones, Alissa</t>
   </si>
   <si>
-    <t>Downs, Deborah</t>
-  </si>
-  <si>
-    <t>FINC</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>Afshari, Anbar</t>
   </si>
   <si>
@@ -175,52 +188,152 @@
   </si>
   <si>
     <t>Cassinelli, Anastis</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>JobSat</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,18 +342,185 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,8 +532,106 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,107 +640,112 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00DD0806"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00CCCCCC"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -385,44 +768,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -450,14 +833,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -485,6 +885,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,324 +913,213 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
         <v>53788.26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -823,23 +1129,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
         <v>94494.58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
@@ -849,107 +1155,107 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>57139.9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>111074.86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6">
-        <v>111074.86</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>96</v>
-      </c>
-      <c r="I4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
         <v>53772.58</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>65</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6">
-        <v>57139.9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-      <c r="I6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>69441.929999999993</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
+        <v>19</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
@@ -959,26 +1265,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
         <v>99062.66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
@@ -988,26 +1294,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
         <v>72321.36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
@@ -1017,26 +1323,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
         <v>61356.69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
@@ -1046,26 +1352,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
         <v>56772.95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
+        <v>19</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
@@ -1075,26 +1381,26 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
         <v>55545.25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
@@ -1104,26 +1410,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4">
         <v>81871.05</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
+        <v>19</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
@@ -1133,26 +1439,26 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6">
-        <v>71084.01999999999</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="4">
+        <v>71084.02</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
@@ -1162,26 +1468,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4">
         <v>66337.83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
@@ -1191,26 +1497,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="6">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4">
         <v>95027.55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
@@ -1220,26 +1526,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
         <v>92681.19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
@@ -1249,26 +1555,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4">
         <v>91352.33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
@@ -1278,26 +1584,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6">
-        <v>134419.22999999998</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>134419.23000000001</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
@@ -1307,26 +1613,26 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4">
         <v>122563.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -1336,26 +1642,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="6">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4">
         <v>49704.79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -1365,26 +1671,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4">
         <v>83014.429999999993</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
@@ -1394,26 +1700,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4">
         <v>49868.68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
@@ -1423,26 +1729,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4">
         <v>69624.87</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
@@ -1452,26 +1758,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="6">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4">
         <v>66312.89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
+        <v>15</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
@@ -1481,26 +1787,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="5">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4">
         <v>77714.850000000006</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
@@ -1510,26 +1816,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4">
         <v>49188.959999999999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
@@ -1539,26 +1845,26 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4">
         <v>46124.97</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1">
+        <v>19</v>
+      </c>
+      <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
@@ -1568,26 +1874,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4">
         <v>61055.44</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
+        <v>19</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
@@ -1597,26 +1903,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="5">
+        <v>31</v>
+      </c>
+      <c r="E30" s="4">
         <v>69547.600000000006</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1">
+        <v>15</v>
+      </c>
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
@@ -1626,26 +1932,26 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4">
         <v>87785.51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1">
+        <v>15</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
@@ -1655,23 +1961,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="5">
+        <v>31</v>
+      </c>
+      <c r="E32" s="4">
         <v>72502.5</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
@@ -1681,26 +1987,26 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4">
         <v>61961.29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1">
+        <v>19</v>
+      </c>
+      <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
@@ -1710,26 +2016,26 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5">
-        <v>72675.260000000009</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="4">
+        <v>72675.259999999995</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1">
+        <v>12</v>
+      </c>
+      <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
@@ -1739,26 +2045,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4">
         <v>108138.43</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
@@ -1768,26 +2074,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4">
         <v>51036.85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1">
+        <v>19</v>
+      </c>
+      <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
@@ -1797,26 +2103,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="5">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4">
         <v>56508.32</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1">
+        <v>15</v>
+      </c>
+      <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
@@ -1826,26 +2132,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="5">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4">
         <v>57562.36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1">
+        <v>19</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
@@ -1856,20 +2162,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>0</formula1>
-      <formula2>250000</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.79" right="0.79" top="1.05" bottom="1.05" header="0.79" footer="0.79"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>